--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1440333.572345028</v>
+        <v>1438081.49263382</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>365.5629992635212</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>108.2462644793322</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>161.2026687524965</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>220.3091963090867</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516803</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>78.2482067777967</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>100.7749839721239</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>218.5174356271577</v>
+        <v>41.41379075544716</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>117.4014735002803</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>221.7048515690723</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>45.36631724422274</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936201</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.2700607443053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.5908209162938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>117.4765410832882</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936215</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011978</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>131.9527903262019</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8253826161864003</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.807527238423</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.807527238423</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.541828631673</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>846.7535760334285</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>435.767671243821</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278357</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>417.6040489720652</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>758.0560272803096</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720652</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="V4" t="n">
-        <v>417.6040489720652</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W4" t="n">
-        <v>417.6040489720652</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>417.6040489720652</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.6040489720652</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219475</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279063</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.904259672313</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>746.1160070740684</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283597</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>609.2899331452389</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>440.353750217332</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>440.353750217332</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>292.4406566349389</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>145.5507091370286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>145.5507091370286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>145.5507091370286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452389</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="V7" t="n">
-        <v>609.2899331452389</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W7" t="n">
-        <v>609.2899331452389</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X7" t="n">
-        <v>609.2899331452389</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>609.2899331452389</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2268.308520734407</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.346003793995</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1541.080305187244</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.292052589</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3061477993926</v>
+        <v>565.4135772219073</v>
       </c>
       <c r="G8" t="n">
-        <v>329.2336976443891</v>
+        <v>150.3411270669038</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.5837926935567</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>666.6476097656498</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>516.530970353314</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>368.6178767709209</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7279292730106</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602305</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565344</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667327</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M15" t="n">
-        <v>691.195150674524</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,37 +5501,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.004324229773</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.004324229773</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2063.776898693424</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>1774.701672037622</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1520.017183831735</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1230.600013794774</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1002.610462896757</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>781.8178837532264</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597574</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
         <v>261.0127623330919</v>
@@ -6847,61 +6847,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614341</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317904</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.1578210480461</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260373</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.2652634529495</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922655</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.31459260778952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.24115926564355</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>31.13893193492417</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228572</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459086</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>85.4526600010864</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.6085800303828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115524</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="15">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26454,7 +26454,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26525,43 +26525,43 @@
         <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997315</v>
       </c>
       <c r="E6" t="n">
-        <v>62494.99316811131</v>
+        <v>62460.25524267538</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.454975467</v>
+        <v>387872.7170500314</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500313</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.4549754671</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="J6" t="n">
-        <v>170376.2525781892</v>
+        <v>170341.5146527536</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500314</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="M6" t="n">
-        <v>302852.4270399549</v>
+        <v>302817.6891145192</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.4549754668</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.4549754668</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500312</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>45.35872638993226</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>240.9947042380808</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.55223036870413</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>58.34628052367273</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>186.5668494326248</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437324</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>18.10421363204139</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>118.7739653040453</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>76.09032876016278</v>
+        <v>253.1939736318733</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053326</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>64.81814676751873</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.589667008672276e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29566,10 +29566,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989724</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.9328157424943</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>653.3850396373771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254384</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.8203919190983</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>510.7887951929326</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
